--- a/data/ibco전용/results/ibco_review_200개통계포함.xlsx
+++ b/data/ibco전용/results/ibco_review_200개통계포함.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\ibco-review_analysis\data\ibco전용\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43F5CC3-D16B-4ADB-9A61-6C79540FF6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5237CD38-ACC7-4DBB-B366-FD3A58E3AA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reviews!$A$1:$L$201</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1912,11 +1925,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="L199" sqref="L199"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1954,7 +1969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1992,7 +2007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2030,7 +2045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2068,7 +2083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2106,7 +2121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2144,7 +2159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2182,7 +2197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2220,7 +2235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2258,7 +2273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2296,7 +2311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -2334,7 +2349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2372,7 +2387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -2410,7 +2425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2448,7 +2463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2486,7 +2501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -2524,7 +2539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -2562,7 +2577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2600,7 +2615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -2638,7 +2653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2676,7 +2691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2714,7 +2729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2752,7 +2767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -2790,7 +2805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -2828,7 +2843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -2866,7 +2881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -2904,7 +2919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -2942,7 +2957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -2980,7 +2995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -3018,7 +3033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -3056,7 +3071,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -3094,7 +3109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -3132,7 +3147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -3170,7 +3185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -3208,7 +3223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -3246,7 +3261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -3284,7 +3299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -3322,7 +3337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -3360,7 +3375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -3398,7 +3413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -3436,7 +3451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -3474,7 +3489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -3512,7 +3527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -3550,7 +3565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>123</v>
       </c>
@@ -3588,7 +3603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -3626,7 +3641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -3664,7 +3679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -3702,7 +3717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>132</v>
       </c>
@@ -3740,7 +3755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -3778,7 +3793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>137</v>
       </c>
@@ -3816,7 +3831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>140</v>
       </c>
@@ -3854,7 +3869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -3892,7 +3907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>144</v>
       </c>
@@ -3930,7 +3945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -3968,7 +3983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>148</v>
       </c>
@@ -4006,7 +4021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>150</v>
       </c>
@@ -4044,7 +4059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -4082,7 +4097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>154</v>
       </c>
@@ -4120,7 +4135,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -4158,7 +4173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>159</v>
       </c>
@@ -4196,7 +4211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>161</v>
       </c>
@@ -4234,7 +4249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -4272,7 +4287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -4310,7 +4325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>168</v>
       </c>
@@ -4348,7 +4363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>170</v>
       </c>
@@ -4386,7 +4401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>172</v>
       </c>
@@ -4424,7 +4439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>173</v>
       </c>
@@ -4462,7 +4477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>175</v>
       </c>
@@ -4500,7 +4515,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>178</v>
       </c>
@@ -4538,7 +4553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>180</v>
       </c>
@@ -4576,7 +4591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>183</v>
       </c>
@@ -4614,7 +4629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>185</v>
       </c>
@@ -4652,7 +4667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>187</v>
       </c>
@@ -4690,7 +4705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>189</v>
       </c>
@@ -4728,7 +4743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>191</v>
       </c>
@@ -4766,7 +4781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>193</v>
       </c>
@@ -4804,7 +4819,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>195</v>
       </c>
@@ -4842,7 +4857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>198</v>
       </c>
@@ -4880,7 +4895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>200</v>
       </c>
@@ -4918,7 +4933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>202</v>
       </c>
@@ -4956,7 +4971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>204</v>
       </c>
@@ -4994,7 +5009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>206</v>
       </c>
@@ -5032,7 +5047,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>210</v>
       </c>
@@ -5070,7 +5085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>212</v>
       </c>
@@ -5108,7 +5123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>214</v>
       </c>
@@ -5146,7 +5161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>216</v>
       </c>
@@ -5184,7 +5199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>218</v>
       </c>
@@ -5222,7 +5237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>220</v>
       </c>
@@ -5260,7 +5275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>222</v>
       </c>
@@ -5298,7 +5313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>224</v>
       </c>
@@ -5336,7 +5351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>227</v>
       </c>
@@ -5374,7 +5389,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>229</v>
       </c>
@@ -5412,7 +5427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>232</v>
       </c>
@@ -5450,7 +5465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>234</v>
       </c>
@@ -5488,7 +5503,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>237</v>
       </c>
@@ -5526,7 +5541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>239</v>
       </c>
@@ -5564,7 +5579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>241</v>
       </c>
@@ -5602,7 +5617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>243</v>
       </c>
@@ -5640,7 +5655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>246</v>
       </c>
@@ -5678,7 +5693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>248</v>
       </c>
@@ -5716,7 +5731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>250</v>
       </c>
@@ -5754,7 +5769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>252</v>
       </c>
@@ -5792,7 +5807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>130</v>
       </c>
@@ -5830,7 +5845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>256</v>
       </c>
@@ -5868,7 +5883,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>258</v>
       </c>
@@ -5906,7 +5921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>260</v>
       </c>
@@ -5944,7 +5959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>262</v>
       </c>
@@ -5982,7 +5997,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -6020,7 +6035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>267</v>
       </c>
@@ -6058,7 +6073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>269</v>
       </c>
@@ -6096,7 +6111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>272</v>
       </c>
@@ -6134,7 +6149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>274</v>
       </c>
@@ -6172,7 +6187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>277</v>
       </c>
@@ -6210,7 +6225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>280</v>
       </c>
@@ -6248,7 +6263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>282</v>
       </c>
@@ -6286,7 +6301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>284</v>
       </c>
@@ -6324,7 +6339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>286</v>
       </c>
@@ -6362,7 +6377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>288</v>
       </c>
@@ -6400,7 +6415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>290</v>
       </c>
@@ -6438,7 +6453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>292</v>
       </c>
@@ -6476,7 +6491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>294</v>
       </c>
@@ -6514,7 +6529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>296</v>
       </c>
@@ -6552,7 +6567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>298</v>
       </c>
@@ -6590,7 +6605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>300</v>
       </c>
@@ -6628,7 +6643,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>302</v>
       </c>
@@ -6666,7 +6681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>303</v>
       </c>
@@ -6704,7 +6719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>305</v>
       </c>
@@ -6742,7 +6757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>307</v>
       </c>
@@ -6780,7 +6795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>311</v>
       </c>
@@ -6818,7 +6833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>313</v>
       </c>
@@ -6856,7 +6871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>315</v>
       </c>
@@ -6894,7 +6909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>317</v>
       </c>
@@ -6932,7 +6947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>320</v>
       </c>
@@ -6970,7 +6985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>322</v>
       </c>
@@ -7008,7 +7023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>324</v>
       </c>
@@ -7046,7 +7061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>326</v>
       </c>
@@ -7084,7 +7099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>328</v>
       </c>
@@ -7122,7 +7137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>330</v>
       </c>
@@ -7160,7 +7175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>333</v>
       </c>
@@ -7198,7 +7213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>334</v>
       </c>
@@ -7236,7 +7251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>335</v>
       </c>
@@ -7274,7 +7289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>337</v>
       </c>
@@ -7312,7 +7327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>339</v>
       </c>
@@ -7350,7 +7365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>341</v>
       </c>
@@ -7388,7 +7403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>344</v>
       </c>
@@ -7426,7 +7441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>346</v>
       </c>
@@ -7464,7 +7479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>348</v>
       </c>
@@ -7502,7 +7517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>350</v>
       </c>
@@ -7540,7 +7555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>352</v>
       </c>
@@ -7578,7 +7593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>354</v>
       </c>
@@ -7616,7 +7631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>356</v>
       </c>
@@ -7654,7 +7669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>358</v>
       </c>
@@ -7692,7 +7707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>360</v>
       </c>
@@ -7730,7 +7745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>364</v>
       </c>
@@ -7768,7 +7783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>366</v>
       </c>
@@ -7806,7 +7821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>368</v>
       </c>
@@ -7844,7 +7859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>371</v>
       </c>
@@ -7882,7 +7897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>373</v>
       </c>
@@ -7920,7 +7935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>375</v>
       </c>
@@ -7958,7 +7973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>377</v>
       </c>
@@ -7996,7 +8011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>379</v>
       </c>
@@ -8034,7 +8049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>381</v>
       </c>
@@ -8072,7 +8087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>383</v>
       </c>
@@ -8110,7 +8125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>385</v>
       </c>
@@ -8148,7 +8163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>387</v>
       </c>
@@ -8186,7 +8201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>389</v>
       </c>
@@ -8224,7 +8239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>391</v>
       </c>
@@ -8262,7 +8277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>393</v>
       </c>
@@ -8300,7 +8315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>395</v>
       </c>
@@ -8338,7 +8353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>397</v>
       </c>
@@ -8376,7 +8391,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>399</v>
       </c>
@@ -8414,7 +8429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>401</v>
       </c>
@@ -8452,7 +8467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>403</v>
       </c>
@@ -8490,7 +8505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>406</v>
       </c>
@@ -8528,7 +8543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>408</v>
       </c>
@@ -8566,7 +8581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>411</v>
       </c>
@@ -8604,7 +8619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>413</v>
       </c>
@@ -8642,7 +8657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>415</v>
       </c>
@@ -8680,7 +8695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>417</v>
       </c>
@@ -8718,7 +8733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>419</v>
       </c>
@@ -8756,7 +8771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>421</v>
       </c>
@@ -8794,7 +8809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>423</v>
       </c>
@@ -8832,7 +8847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>425</v>
       </c>
@@ -8870,7 +8885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>428</v>
       </c>
@@ -8908,7 +8923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>430</v>
       </c>
@@ -8946,7 +8961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>432</v>
       </c>
@@ -8984,7 +8999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>434</v>
       </c>
@@ -9022,7 +9037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>436</v>
       </c>
@@ -9060,7 +9075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>438</v>
       </c>
@@ -9098,7 +9113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>440</v>
       </c>
@@ -9136,7 +9151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>441</v>
       </c>
@@ -9174,7 +9189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>443</v>
       </c>
@@ -9212,7 +9227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>445</v>
       </c>
@@ -9250,7 +9265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>447</v>
       </c>
@@ -9288,7 +9303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>450</v>
       </c>
@@ -9326,7 +9341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>452</v>
       </c>
@@ -9364,7 +9379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>454</v>
       </c>
@@ -9402,7 +9417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>456</v>
       </c>
@@ -9440,7 +9455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>458</v>
       </c>
@@ -9478,7 +9493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>461</v>
       </c>
@@ -9516,7 +9531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>463</v>
       </c>
@@ -9568,16 +9583,16 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>465</v>
       </c>
@@ -9585,7 +9600,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -9593,7 +9608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -9601,7 +9616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -9609,7 +9624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -9617,7 +9632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -9625,7 +9640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -9633,7 +9648,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -9641,7 +9656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -9649,7 +9664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -9657,7 +9672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -9679,12 +9694,12 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>465</v>
       </c>
@@ -9692,7 +9707,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -9700,7 +9715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -9708,7 +9723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -9716,7 +9731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -9724,7 +9739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -9732,7 +9747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>310</v>
       </c>
@@ -9740,7 +9755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -9748,7 +9763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -9773,9 +9788,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>465</v>
       </c>
@@ -9783,7 +9798,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -9791,7 +9806,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -9799,7 +9814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -9807,7 +9822,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>156</v>
       </c>
